--- a/_Out/NFDataCfg/Excel/Comm/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel/Comm/EffectData.xlsx
@@ -686,8 +686,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -712,9 +712,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,16 +727,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,8 +748,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,9 +771,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,6 +794,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -796,9 +810,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,8 +832,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,40 +855,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -896,13 +896,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +932,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,19 +986,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,37 +1022,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,37 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,31 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,6 +1215,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1240,21 +1255,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1265,21 +1265,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,114 +1288,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1419,19 +1419,19 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1440,16 +1440,16 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1929,11 +1929,11 @@
   <dimension ref="A1:AG110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B$1:D$1048576"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11:M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>50</v>
       </c>
       <c r="M12">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>100</v>
       </c>
       <c r="M13">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>150</v>
       </c>
       <c r="M14">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>200</v>
       </c>
       <c r="M15">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>250</v>
       </c>
       <c r="M16">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>300</v>
       </c>
       <c r="M17">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>350</v>
       </c>
       <c r="M18">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>400</v>
       </c>
       <c r="M19">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>450</v>
       </c>
       <c r="M20">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>500</v>
       </c>
       <c r="M21">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>550</v>
       </c>
       <c r="M22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -4211,7 +4211,7 @@
         <v>600</v>
       </c>
       <c r="M23">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>650</v>
       </c>
       <c r="M24">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>700</v>
       </c>
       <c r="M25">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>750</v>
       </c>
       <c r="M26">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>800</v>
       </c>
       <c r="M27">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>850</v>
       </c>
       <c r="M28">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>900</v>
       </c>
       <c r="M29">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>950</v>
       </c>
       <c r="M30">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>1000</v>
       </c>
       <c r="M31">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>1050</v>
       </c>
       <c r="M32">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>1100</v>
       </c>
       <c r="M33">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -5322,7 +5322,7 @@
         <v>1150</v>
       </c>
       <c r="M34">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>1200</v>
       </c>
       <c r="M35">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1250</v>
       </c>
       <c r="M36">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>1300</v>
       </c>
       <c r="M37">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>1350</v>
       </c>
       <c r="M38">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>1400</v>
       </c>
       <c r="M39">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>1450</v>
       </c>
       <c r="M40">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -6029,7 +6029,7 @@
         <v>1500</v>
       </c>
       <c r="M41">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -6130,7 +6130,7 @@
         <v>1550</v>
       </c>
       <c r="M42">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>1600</v>
       </c>
       <c r="M43">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>1650</v>
       </c>
       <c r="M44">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>1700</v>
       </c>
       <c r="M45">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -6534,7 +6534,7 @@
         <v>1750</v>
       </c>
       <c r="M46">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>1800</v>
       </c>
       <c r="M47">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>1850</v>
       </c>
       <c r="M48">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>1900</v>
       </c>
       <c r="M49">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>1950</v>
       </c>
       <c r="M50">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="AB50">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>2000</v>
       </c>
       <c r="M51">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>2050</v>
       </c>
       <c r="M52">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>2100</v>
       </c>
       <c r="M53">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -7342,7 +7342,7 @@
         <v>2150</v>
       </c>
       <c r="M54">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -7443,7 +7443,7 @@
         <v>2200</v>
       </c>
       <c r="M55">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -7544,7 +7544,7 @@
         <v>2250</v>
       </c>
       <c r="M56">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -7645,7 +7645,7 @@
         <v>2300</v>
       </c>
       <c r="M57">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="AB57">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>2350</v>
       </c>
       <c r="M58">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="AB58">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -7847,7 +7847,7 @@
         <v>2400</v>
       </c>
       <c r="M59">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>2450</v>
       </c>
       <c r="M60">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>2500</v>
       </c>
       <c r="M61">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AB61">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>2550</v>
       </c>
       <c r="M62">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="AB62">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -8251,7 +8251,7 @@
         <v>2600</v>
       </c>
       <c r="M63">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>2650</v>
       </c>
       <c r="M64">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="AB64">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>2700</v>
       </c>
       <c r="M65">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="AB65">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>2750</v>
       </c>
       <c r="M66">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="AB66">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>2800</v>
       </c>
       <c r="M67">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AB67">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -8756,7 +8756,7 @@
         <v>2850</v>
       </c>
       <c r="M68">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="AB68">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -8857,7 +8857,7 @@
         <v>2900</v>
       </c>
       <c r="M69">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="AB69">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>2950</v>
       </c>
       <c r="M70">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="AB70">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -9059,7 +9059,7 @@
         <v>3000</v>
       </c>
       <c r="M71">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="AB71">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>3050</v>
       </c>
       <c r="M72">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -9205,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="AB72">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>3100</v>
       </c>
       <c r="M73">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -9362,7 +9362,7 @@
         <v>3150</v>
       </c>
       <c r="M74">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -9463,7 +9463,7 @@
         <v>3200</v>
       </c>
       <c r="M75">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>3250</v>
       </c>
       <c r="M76">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="AB76">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         <v>3300</v>
       </c>
       <c r="M77">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="AB77">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -9766,7 +9766,7 @@
         <v>3350</v>
       </c>
       <c r="M78">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="AB78">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -9867,7 +9867,7 @@
         <v>3400</v>
       </c>
       <c r="M79">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="AB79">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>3450</v>
       </c>
       <c r="M80">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="AB80">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -10069,7 +10069,7 @@
         <v>3500</v>
       </c>
       <c r="M81">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="AB81">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>3550</v>
       </c>
       <c r="M82">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="AB82">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>3600</v>
       </c>
       <c r="M83">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -10316,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="AB83">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>3650</v>
       </c>
       <c r="M84">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="AB84">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>3700</v>
       </c>
       <c r="M85">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="AB85">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -10574,7 +10574,7 @@
         <v>3750</v>
       </c>
       <c r="M86">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -10619,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="AB86">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -10675,7 +10675,7 @@
         <v>3800</v>
       </c>
       <c r="M87">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="AB87">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -10776,7 +10776,7 @@
         <v>3850</v>
       </c>
       <c r="M88">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -10821,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="AB88">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -10877,7 +10877,7 @@
         <v>3900</v>
       </c>
       <c r="M89">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="AB89">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>3950</v>
       </c>
       <c r="M90">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="AB90">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>4000</v>
       </c>
       <c r="M91">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="AB91">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -11180,7 +11180,7 @@
         <v>4050</v>
       </c>
       <c r="M92">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="AB92">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -11281,7 +11281,7 @@
         <v>4100</v>
       </c>
       <c r="M93">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="AB93">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>4150</v>
       </c>
       <c r="M94">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -11427,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="AB94">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -11483,7 +11483,7 @@
         <v>4200</v>
       </c>
       <c r="M95">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -11528,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="AB95">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -11584,7 +11584,7 @@
         <v>4250</v>
       </c>
       <c r="M96">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="AB96">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -11685,7 +11685,7 @@
         <v>4300</v>
       </c>
       <c r="M97">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="AB97">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -11786,7 +11786,7 @@
         <v>4350</v>
       </c>
       <c r="M98">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="AB98">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>4400</v>
       </c>
       <c r="M99">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="AB99">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -11988,7 +11988,7 @@
         <v>4450</v>
       </c>
       <c r="M100">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="AB100">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -12089,7 +12089,7 @@
         <v>4500</v>
       </c>
       <c r="M101">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -12134,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="AB101">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>4550</v>
       </c>
       <c r="M102">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="AB102">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>4600</v>
       </c>
       <c r="M103">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="AB103">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -12392,7 +12392,7 @@
         <v>4650</v>
       </c>
       <c r="M104">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="AB104">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -12493,7 +12493,7 @@
         <v>4700</v>
       </c>
       <c r="M105">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -12538,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="AB105">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>4750</v>
       </c>
       <c r="M106">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="AB106">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -12695,7 +12695,7 @@
         <v>4800</v>
       </c>
       <c r="M107">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -12740,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="AB107">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>4850</v>
       </c>
       <c r="M108">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="AB108">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -12897,7 +12897,7 @@
         <v>4900</v>
       </c>
       <c r="M109">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="AB109">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -12998,7 +12998,7 @@
         <v>4950</v>
       </c>
       <c r="M110">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -13043,7 +13043,7 @@
         <v>0</v>
       </c>
       <c r="AB110">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC110">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel/Comm/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel/Comm/EffectData.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23360"/>
+    <workbookView windowHeight="23360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
-    <sheet name="Record_CommValue" sheetId="2" r:id="rId2"/>
+    <sheet name="Property_Equipment" sheetId="3" r:id="rId2"/>
+    <sheet name="Record_CommValue" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -71,18 +73,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物品配置ID</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I11" authorId="0">
       <text>
         <r>
@@ -124,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>Id</t>
   </si>
@@ -150,7 +140,7 @@
     <t>HPREGEN</t>
   </si>
   <si>
-    <t>SPREGEN</t>
+    <t>EVASION</t>
   </si>
   <si>
     <t>MPREGEN</t>
@@ -646,6 +636,24 @@
   </si>
   <si>
     <t>PlayerAtt100</t>
+  </si>
+  <si>
+    <t>Equipment_Att_Weapon</t>
+  </si>
+  <si>
+    <t>Equipment_Att_Armor</t>
+  </si>
+  <si>
+    <t>Equipment_Att_Ring</t>
+  </si>
+  <si>
+    <t>Equipment_Att_Boot</t>
+  </si>
+  <si>
+    <t>Equipment_Att_Hand</t>
+  </si>
+  <si>
+    <t>Equipment_Att_Helmet</t>
   </si>
   <si>
     <t>CommValue</t>
@@ -712,30 +720,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,16 +735,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -765,38 +744,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,9 +772,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,9 +801,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,17 +826,48 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -896,18 +904,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -920,19 +916,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,79 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,19 +1012,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,25 +1084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,15 +1214,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1226,6 +1225,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,9 +1273,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,26 +1293,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1308,148 +1316,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1472,6 +1480,9 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1491,9 +1502,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,133 +1936,136 @@
   <sheetPr/>
   <dimension ref="A1:AG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11:M110"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="24.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="16.3365384615385" customWidth="1"/>
-    <col min="3" max="4" width="9.33653846153846" customWidth="1"/>
+    <col min="3" max="3" width="28.5384615384615" customWidth="1"/>
+    <col min="4" max="4" width="18.3076923076923" customWidth="1"/>
     <col min="5" max="7" width="11.6634615384615" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="15.3365384615385" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="26" width="16.5288461538462" customWidth="1"/>
+    <col min="27" max="27" width="14.4230769230769" customWidth="1"/>
     <col min="28" max="28" width="16.5288461538462" customWidth="1"/>
-    <col min="29" max="29" width="10.3365384615385" customWidth="1"/>
-    <col min="30" max="30" width="13" customWidth="1"/>
-    <col min="31" max="31" width="12.1346153846154" customWidth="1"/>
-    <col min="32" max="33" width="15.7307692307692" customWidth="1"/>
+    <col min="29" max="29" width="21.7692307692308" customWidth="1"/>
+    <col min="30" max="30" width="26.4615384615385" customWidth="1"/>
+    <col min="31" max="31" width="23.2307692307692" customWidth="1"/>
+    <col min="32" max="32" width="21.1538461538462" customWidth="1"/>
+    <col min="33" max="33" width="15.7307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="34" spans="1:33">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" s="9" customFormat="1" ht="17" spans="1:33">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="17" spans="1:33">
+    <row r="2" s="10" customFormat="1" ht="17" spans="1:33">
       <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
@@ -2155,7 +2166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:33">
+    <row r="3" s="10" customFormat="1" spans="1:33">
       <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
@@ -2256,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:33">
+    <row r="4" s="10" customFormat="1" spans="1:33">
       <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
@@ -2357,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:33">
+    <row r="5" s="10" customFormat="1" spans="1:33">
       <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
@@ -2458,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:33">
+    <row r="6" s="10" customFormat="1" spans="1:33">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
@@ -2559,310 +2570,310 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" ht="17" spans="1:33">
+    <row r="7" s="11" customFormat="1" ht="17" spans="1:33">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0</v>
-      </c>
-      <c r="S7" s="10">
-        <v>0</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0</v>
-      </c>
-      <c r="U7" s="10">
-        <v>0</v>
-      </c>
-      <c r="V7" s="10">
-        <v>0</v>
-      </c>
-      <c r="W7" s="10">
-        <v>0</v>
-      </c>
-      <c r="X7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="10">
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1" ht="17" spans="1:33">
+    <row r="8" s="11" customFormat="1" ht="17" spans="1:33">
       <c r="A8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>0</v>
-      </c>
-      <c r="R8" s="10">
-        <v>0</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10">
-        <v>0</v>
-      </c>
-      <c r="U8" s="10">
-        <v>0</v>
-      </c>
-      <c r="V8" s="10">
-        <v>0</v>
-      </c>
-      <c r="W8" s="10">
-        <v>0</v>
-      </c>
-      <c r="X8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="10">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="1" ht="17" spans="1:33">
+    <row r="9" s="11" customFormat="1" ht="17" spans="1:33">
       <c r="A9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>0</v>
-      </c>
-      <c r="R9" s="10">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10">
-        <v>0</v>
-      </c>
-      <c r="U9" s="10">
-        <v>0</v>
-      </c>
-      <c r="V9" s="10">
-        <v>0</v>
-      </c>
-      <c r="W9" s="10">
-        <v>0</v>
-      </c>
-      <c r="X9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="10">
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" ht="34.75" spans="1:33">
+    <row r="10" s="12" customFormat="1" ht="17.75" spans="1:33">
       <c r="A10" s="16" t="s">
         <v>42</v>
       </c>
@@ -13077,10 +13088,1670 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:AG16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="24.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="16.3365384615385" customWidth="1"/>
+    <col min="3" max="3" width="28.5384615384615" customWidth="1"/>
+    <col min="4" max="4" width="18.3076923076923" customWidth="1"/>
+    <col min="5" max="7" width="11.6634615384615" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.3365384615385" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="26" width="16.5288461538462" customWidth="1"/>
+    <col min="27" max="27" width="14.4230769230769" customWidth="1"/>
+    <col min="28" max="28" width="16.5288461538462" customWidth="1"/>
+    <col min="29" max="29" width="21.7692307692308" customWidth="1"/>
+    <col min="30" max="30" width="26.4615384615385" customWidth="1"/>
+    <col min="31" max="31" width="23.2307692307692" customWidth="1"/>
+    <col min="32" max="32" width="21.1538461538462" customWidth="1"/>
+    <col min="33" max="33" width="15.7307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="9" customFormat="1" ht="17" spans="1:33">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="17" spans="1:33">
+      <c r="A2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:33">
+      <c r="A3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" spans="1:33">
+      <c r="A4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="10" customFormat="1" spans="1:33">
+      <c r="A5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="10" customFormat="1" spans="1:33">
+      <c r="A6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="17" spans="1:33">
+      <c r="A7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="17" spans="1:33">
+      <c r="A8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="17" spans="1:33">
+      <c r="A9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="17.75" spans="1:33">
+      <c r="A10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG10" s="17"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q9 U7:U9 V7:V9 W7:W9 AA7:AA9 AG7:AG9 R7:T9 X7:Z9 H7:P9 B7:G9 AB7:AF9">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -13118,12 +14789,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2">
         <v>15</v>
@@ -13131,7 +14802,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2">
         <v>32</v>
@@ -13185,9 +14856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="17" spans="1:2">
+    <row r="10" s="2" customFormat="1" ht="17.75" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -13215,7 +14886,7 @@
       <c r="G11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -13239,7 +14910,7 @@
       <c r="O11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="4" t="s">
@@ -13257,7 +14928,7 @@
       <c r="U11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="W11" s="4" t="s">
@@ -13287,7 +14958,7 @@
       <c r="AE11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AF11" s="7" t="s">
+      <c r="AF11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13426,20 +15097,20 @@
       <c r="AF13" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="12:13">
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="26" customFormat="1" spans="15:17">
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B10 A4:B5 D13:G1048576 D1:G10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:C12 P12 V12 W12 AF12 I23:K23 N23:O23 P23 Q23:U23 V23 W23:AE23 AF23 I26:N26 R26:U26 V26 W26:AE26 AF26 P1:P10 P13:P22 P24:P25 P27:P1048576 V1:V10 V13:V22 V24:V25 V27:V1048576 AF1:AF10 AF13:AF22 AF24:AF25 AF27:AF1048576 D11:O12 I1:O10 I27:O1048576 I13:O22 I24:O25 Q11:U12 Q1:U10 Q27:U1048576 Q13:U22 Q24:U25 X11:AE12 W1:AE10 W27:AE1048576 W13:AE22 W24:AE25 AG$1:AM$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D11:G11 I11:O11 A12:C12 D12:O12 P12 V12 W12 AF12 I23:K23 N23:O23 P23 Q23:U23 V23 W23:AE23 AF23 I26:N26 R26:U26 V26 W26:AE26 AF26 P1:P10 P13:P22 P24:P25 P27:P1048576 V1:V10 V13:V22 V24:V25 V27:V1048576 AF1:AF10 AF13:AF22 AF24:AF25 AF27:AF1048576 I1:O10 I27:O1048576 I13:O22 I24:O25 Q11:U12 Q1:U10 Q27:U1048576 Q13:U22 Q24:U25 X11:AE12 W1:AE10 W27:AE1048576 W13:AE22 W24:AE25 AG$1:AM$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C1:C10 A2:B3 B14:C1048576">
